--- a/cleaned/baroda_bnp_paribas_mutual_fund_portfolio.xlsx
+++ b/cleaned/baroda_bnp_paribas_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,11 +511,7 @@
           <t>INE261F08DX0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -517,17 +528,24 @@
           <t>0.0661</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -544,11 +562,7 @@
           <t>INE020B08ED9</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -565,17 +579,24 @@
           <t>0.0661</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>0.07625</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -592,11 +613,7 @@
           <t>INE557F08FN7</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
@@ -613,17 +630,24 @@
           <t>0.0661</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>0.077701</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -640,11 +664,7 @@
           <t>INE721A07RU2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CRISIL AA+</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -661,17 +681,24 @@
           <t>0.0444</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>0.08554</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -688,11 +715,7 @@
           <t>INE233A08113</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CRISIL AA+</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -709,17 +732,24 @@
           <t>0.0443</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>0.08195</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -736,11 +766,7 @@
           <t>INE403D08181</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CRISIL AA+</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -757,17 +783,24 @@
           <t>0.0443</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -784,11 +817,7 @@
           <t>INE572E07183</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CARE AA+</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
@@ -805,17 +834,24 @@
           <t>0.0442</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -832,11 +868,7 @@
           <t>INE053F08304</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -853,17 +885,24 @@
           <t>0.044</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>0.075123</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -880,11 +919,7 @@
           <t>INE0CCU07074</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -901,17 +936,24 @@
           <t>0.031</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>0.081225</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -928,11 +970,7 @@
           <t>INE896L07983</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CARE AA-</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
@@ -949,17 +987,24 @@
           <t>0.0221</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>0.104622</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -976,11 +1021,7 @@
           <t>IN0020220037</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sovereign</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
@@ -997,17 +1038,24 @@
           <t>0.009</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>0.067116</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1024,11 +1072,7 @@
           <t>INE957N07781</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CRISIL AA+</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
@@ -1045,17 +1089,24 @@
           <t>0.0088</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments         </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1072,11 +1123,7 @@
           <t>INE1CBK15011</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CRISIL AAA(SO)</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -1093,17 +1140,24 @@
           <t>0.0199</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">c Securitised Debt         </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Securitised Debt  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1120,11 +1174,7 @@
           <t>INE692A16IM2</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FITCH A1+</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -1141,17 +1191,24 @@
           <t>0.0822</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit         </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1168,11 +1225,7 @@
           <t>INE090AD6162</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ICRA A1+</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -1189,17 +1242,24 @@
           <t>0.0643</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit         </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
+        <is>
+          <t>0.075848</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1216,11 +1276,7 @@
           <t>INE476A16A08</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -1237,17 +1293,24 @@
           <t>0.0617</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit         </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1264,11 +1327,7 @@
           <t>INE237A162X7</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -1285,17 +1344,24 @@
           <t>0.0216</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit         </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
+        <is>
+          <t>0.075699</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1312,11 +1378,7 @@
           <t>INE514E14SJ0</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
@@ -1333,17 +1395,24 @@
           <t>0.0625</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper         </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>0.07605</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1360,11 +1429,7 @@
           <t>INE09OL14FY0</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
@@ -1381,17 +1446,24 @@
           <t>0.043</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper         </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
+        <is>
+          <t>0.081499</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1408,11 +1480,7 @@
           <t>INE516Y14HJ6</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
@@ -1429,17 +1497,24 @@
           <t>0.0421</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper         </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
+        <is>
+          <t>0.088013</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
@@ -1456,11 +1531,7 @@
           <t>INF0RQ622028</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
@@ -1477,17 +1548,20 @@
           <t>0.0026</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corporate Debt Market Development Fund         </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>T0MD09</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Corporate Debt Market Development Fund  NAN nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>T0MD09</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Baroda BNP Paribas Mutual Fund</t>
         </is>
